--- a/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type2/pd_results_W5_H200_B32.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type2/pd_results_W5_H200_B32.xlsx
@@ -502,25 +502,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5382059800664452</v>
+        <v>0.5481927710843374</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3142857142857143</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.978494623655914</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5148809523809523</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6652977412731007</v>
+        <v>0.7027027027027026</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +528,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.0581227648716379</v>
+        <v>0.04067454658254082</v>
       </c>
       <c r="J2" t="n">
-        <v>762.6088632311488</v>
+        <v>515.7704754547608</v>
       </c>
       <c r="K2" t="n">
-        <v>886074.1776485774</v>
+        <v>391725.0780290738</v>
       </c>
       <c r="L2" t="n">
-        <v>941.315131955594</v>
+        <v>625.8794436863011</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8367070686016683</v>
+        <v>0.9278097275519782</v>
       </c>
     </row>
   </sheetData>
